--- a/your_excel_file.xlsx
+++ b/your_excel_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5B948C-09F5-47FF-B575-A4E8547A6CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB69B3-91B8-48FC-9AAE-A9936129AAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13185" yWindow="690" windowWidth="13410" windowHeight="10710" xr2:uid="{71B7D099-E6CE-4D78-AB98-CB911818A0D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71B7D099-E6CE-4D78-AB98-CB911818A0D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,83 +36,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>파일명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GD_8809011834671_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_2345001795394_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809064634747_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809153476197_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8801068408683_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809318028391_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809789380424_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809789380431_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809788010735_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809405270009_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8803051881282_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809443710338_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809037249411_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809056561242_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809267019105_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809266251704_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809443710239_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809011834572_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809011834497_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8801085882510_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809267019983_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809011834510_001.jpg</t>
+    <t>GD_8801128000611_001.jpg</t>
+  </si>
+  <si>
+    <t>GD_8801128000635_001.jpg</t>
+  </si>
+  <si>
+    <t>GD_8801104675888_001.jpg</t>
+  </si>
+  <si>
+    <t>GD_9002490100070_001.jpg</t>
+  </si>
+  <si>
+    <t>GD_4901004006721_001.jpg</t>
+  </si>
+  <si>
+    <t>GD_8809288634950_001.jpg</t>
+  </si>
+  <si>
+    <t>GD_8809804990362_001.jpg</t>
+  </si>
+  <si>
+    <t>GD_7622210262202_001.jpg</t>
+  </si>
+  <si>
+    <t>GD_3045140105502_001.jpg</t>
+  </si>
+  <si>
+    <t>GD_8801073212305_001.jpg</t>
+  </si>
+  <si>
+    <t>GD_8809617947973_001.jpg</t>
+  </si>
+  <si>
+    <t>GD_8801007880303_001.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +97,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,8 +122,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -156,10 +135,52 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 8" xfId="1" xr:uid="{6C022084-B610-4B6F-ADD8-F662D9C6D2BC}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -469,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B6AB9A-4502-4AC2-97B0-BBBC6C818B36}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -484,7 +505,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -494,7 +515,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -540,56 +561,6 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/your_excel_file.xlsx
+++ b/your_excel_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munchoo-kim/Programming/munchooRG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB69B3-91B8-48FC-9AAE-A9936129AAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DA2BBF-B916-1647-B2E5-41C6A42EC7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71B7D099-E6CE-4D78-AB98-CB911818A0D0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{71B7D099-E6CE-4D78-AB98-CB911818A0D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,53 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>파일명</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GD_8801128000611_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8801128000635_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8801104675888_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_9002490100070_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_4901004006721_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809288634950_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809804990362_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_7622210262202_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_3045140105502_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8801073212305_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8809617947973_001.jpg</t>
-  </si>
-  <si>
-    <t>GD_8801007880303_001.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +97,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -139,48 +109,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 8" xfId="1" xr:uid="{6C022084-B610-4B6F-ADD8-F662D9C6D2BC}"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -493,74 +422,77 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1">
+        <v>8801104675888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
+        <v>8801128000635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1">
+        <v>8801128000611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>9002490100070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <v>4901004006721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
+        <v>8809288634950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>8809804990362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <v>7622210262202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <v>3045140105502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>8801073212305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <v>8809617947973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>8801007880303</v>
       </c>
     </row>
   </sheetData>

--- a/your_excel_file.xlsx
+++ b/your_excel_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munchoo-kim/Programming/munchooRG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DA2BBF-B916-1647-B2E5-41C6A42EC7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB40162-6995-4BF1-967E-7E28E2BF5B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{71B7D099-E6CE-4D78-AB98-CB911818A0D0}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="10680" xr2:uid="{71B7D099-E6CE-4D78-AB98-CB911818A0D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,7 +101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -123,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +163,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,80 +419,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B6AB9A-4502-4AC2-97B0-BBBC6C818B36}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>8801104675888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>8801097239814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>8801128000635</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>8801001238049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>8801128000611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>8801001238056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>9002490100070</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>8809422044447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>4901004006721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>8809422044430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>8809288634950</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>8801094577100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>8809804990362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>8801094547103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>7622210262202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>8801094589103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>3045140105502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>8801105916706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>8801073212305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>8801105916713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>8809617947973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>8801382148500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>8801007880303</v>
+        <v>8801382149743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>8808024031916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>8808024031909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>8806002020174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>8806002006437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>8806002009957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>8801104669658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>8801104669672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>8801056094591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>8801056096052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>8801056102036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>8801056234027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>8801056234034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>8801155743710</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>8801155724887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>8801155724870</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>8809495077809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>8809495077816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>8809046594199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>8802711189614</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>8802711189591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>8809046594212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>8809854110789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>8809854110819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>8809184809896</v>
       </c>
     </row>
   </sheetData>
